--- a/Producao/Modelos/REQUISICAO_MODELO.xlsx
+++ b/Producao/Modelos/REQUISICAO_MODELO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\Repos\wognascimento\SIG\SIG\Producao\Producao\Modelos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CIPOLATTI\SISTEMAS\Producao\Producao\Modelos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5710095-3D83-4EDF-AE7A-5BB2B4951CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E1DFF3-7F73-4DB7-B3A0-FDAEFA2244C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{795787B9-A603-4E9F-9555-87E07481D83A}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{795787B9-A603-4E9F-9555-87E07481D83A}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>N. REQUISIÇÃO</t>
   </si>
@@ -93,22 +93,17 @@
   </si>
   <si>
     <t>VOLUME</t>
+  </si>
+  <si>
+    <t>LOCAL SHOPPING</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -138,6 +133,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -147,7 +155,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -220,120 +228,90 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -354,9 +332,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -394,7 +372,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -500,7 +478,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -642,7 +620,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -653,7 +631,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,570 +644,570 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="19" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="6"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="18"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="19" t="s">
+      <c r="A4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="21" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="24"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="26"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="18"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="11"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
+      <c r="M6" s="15"/>
       <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="7" t="s">
+      <c r="D8" s="9"/>
+      <c r="E8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="2" t="s">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="M8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="9"/>
-      <c r="O8" s="2" t="s">
+      <c r="N8" s="10"/>
+      <c r="O8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="20">
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E4:F4"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="K4:L4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G3:N3"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G3:N3"/>
+    <mergeCell ref="F4:N4"/>
     <mergeCell ref="E8:K8"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="M8:N8"/>
-    <mergeCell ref="F6:N6"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="M4:N4"/>
     <mergeCell ref="A7:N7"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:N5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="E6:K6"/>
   </mergeCells>
   <pageMargins left="3.937007874015748E-2" right="3.937007874015748E-2" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
